--- a/backend/training/glossing/data/train.xlsx
+++ b/backend/training/glossing/data/train.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,7 +465,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom &lt;ignore&gt;=&lt;ignore&gt; PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Dat Gender=Masc|Number=Sing|Case=Dat</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom _ PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Dat Gender=Masc|Number=Sing|Case=Dat</t>
         </is>
       </c>
     </row>
@@ -477,7 +477,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom &lt;ignore&gt;=&lt;ignore&gt; &lt;ignore&gt;=&lt;ignore&gt;</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom _ _</t>
         </is>
       </c>
     </row>
@@ -513,7 +513,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>&lt;ignore&gt;=&lt;ignore&gt; PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom &lt;ignore&gt;=&lt;ignore&gt; Number=Sing|None=None|None=None</t>
+          <t>_ PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom _ Number=Sing</t>
         </is>
       </c>
     </row>
@@ -561,307 +561,79 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>&lt;ignore&gt;=&lt;ignore&gt;</t>
+          <t>_</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>der Ball, der rollt</t>
+          <t>das Pferd mit dem Zopf</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom &lt;ignore&gt;=&lt;ignore&gt; Tense=Rel|Gender=Masc|Number=Sing|Case=Nom Number=Sing|Tense=Pres|Mood=Ind</t>
+          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Acc Gender=Neut|Number=Sing|Case=Nom _ PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Dat Gender=Masc|Number=Sing|Case=Dat</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>das Pferd mit dem Zopf</t>
+          <t>da sitzen</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Acc Gender=Neut|Number=Sing|Case=Nom &lt;ignore&gt;=&lt;ignore&gt; PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Dat Gender=Masc|Number=Sing|Case=Dat</t>
+          <t>_ _</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>das Pferd, das die Kühe zieht</t>
+          <t>Ziege</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Acc Gender=Neut|Number=Sing|Case=Acc &lt;ignore&gt;=&lt;ignore&gt; Tense=Rel|Gender=Neut|Number=Sing|Case=Nom PronType=Art|Definite=Def|Gender=Fem|Number=Plur|Case=Acc Gender=Fem|Number=Plur|Case=Acc Number=Sing|Tense=Pres|Mood=Ind</t>
+          <t>Number=Sing|Case=Nom</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>da sitzen</t>
+          <t>Baum</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>&lt;ignore&gt;=&lt;ignore&gt; &lt;ignore&gt;=&lt;ignore&gt;</t>
+          <t>Gender=Masc|Number=Sing|Case=Nom</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Ziege</t>
+          <t>der Tisch</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Number=Sing|Case=Nom</t>
+          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Baum</t>
+          <t>die Katze</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Gender=Masc|Number=Sing|Case=Nom</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>da, wo die Ziege sitzt</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>&lt;ignore&gt;=&lt;ignore&gt; &lt;ignore&gt;=&lt;ignore&gt; &lt;ignore&gt;=&lt;ignore&gt; PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom Gender=Fem|Number=Sing|Case=Nom Number=Sing|Tense=Pres|Mood=Ind</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>die Frösche, die die Ente fangen</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Plur|Case=Nom Gender=Masc|Number=Plur|Case=Nom &lt;ignore&gt;=&lt;ignore&gt; Tense=Rel|Gender=Masc|Number=Plur|Case=Nom PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc Number=Plur|Tense=Pres|Mood=Ind</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>die Hunde, die das Schaf gefangen genommen hat</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Plur|Case=Acc Gender=Masc|Number=Plur|Case=Acc &lt;ignore&gt;=&lt;ignore&gt; Tense=Rel|Gender=Masc|Number=Plur|Case=Nom PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Acc Gender=Neut|Number=Sing|Case=Acc &lt;ignore&gt;=&lt;ignore&gt; &lt;ignore&gt;=&lt;ignore&gt; Number=Sing|Tense=Pres|Mood=Ind</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>der Hund, wo das Huhn den Ball zum Hund wirft</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom &lt;ignore&gt;=&lt;ignore&gt; &lt;ignore&gt;=&lt;ignore&gt; PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom Gender=Neut|Number=Sing|Case=Nom PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Acc Gender=Masc|Number=Sing|Case=Acc Gender=Masc|Number=Sing|Case=Dat Gender=Masc|Number=Sing|Case=Dat Number=Sing|Tense=Pres|Mood=Ind</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>der Hund, der die Schafe wäscht</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom &lt;ignore&gt;=&lt;ignore&gt; Tense=Rel|Gender=Masc|Number=Sing|Case=Nom PronType=Art|Definite=Def|Gender=Neut|Number=Plur|Case=Acc Gender=Neut|Number=Plur|Case=Acc Number=Sing|Tense=Pres|Mood=Ind</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>das Huhn, dem der Apfel zugeworfen wird</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom Gender=Neut|Number=Sing|Case=Acc &lt;ignore&gt;=&lt;ignore&gt; Tense=Rel|Gender=Masc|Number=Sing|Case=Dat PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom &lt;ignore&gt;=&lt;ignore&gt; Number=Sing|Tense=Pres|Mood=Ind</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>der Löwe, der die zwei Kühe zieht</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom &lt;ignore&gt;=&lt;ignore&gt; Tense=Rel|Gender=Masc|Number=Sing|Case=Nom PronType=Art|Definite=Def|Gender=Fem|Number=Plur|Case=Acc &lt;ignore&gt;=&lt;ignore&gt; Gender=Fem|Number=Plur|Case=Acc Number=Sing|Tense=Pres|Mood=Ind</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>das Huhn, das neben der Maus steht, und die Maus gibt dem Huhn die Pflaume</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom Gender=Neut|Number=Sing|Case=Nom &lt;ignore&gt;=&lt;ignore&gt; Tense=Rel|Gender=Neut|Number=Sing|Case=Nom &lt;ignore&gt;=&lt;ignore&gt; PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Dat Gender=Fem|Number=Sing|Case=Dat Number=Sing|Tense=Pres|Mood=Ind &lt;ignore&gt;=&lt;ignore&gt; &lt;ignore&gt;=&lt;ignore&gt; PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom Gender=Fem|Number=Sing|Case=Nom Number=Sing|Tense=Pres|Mood=Ind PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Dat Gender=Masc|Number=Sing|Case=Dat PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>die Pferde, die das Schaf schubst ja die und ich vermute, die Pferde, die vom Stier oder Schaf geschubst werden</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Plur|Case=Acc Gender=Neut|Number=Plur|Case=Acc &lt;ignore&gt;=&lt;ignore&gt; Tense=Rel|Gender=Neut|Number=Plur|Case=Nom PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Acc Gender=Neut|Number=Sing|Case=Acc Number=Sing|Tense=Pres|Mood=Ind &lt;ignore&gt;=&lt;ignore&gt; PronType=Dem|Gender=Fem|Number=Sing|Case=Acc &lt;ignore&gt;=&lt;ignore&gt; None=None|Number=Sing|Case=Nom Number=Sing|Tense=Pres|Mood=Ind &lt;ignore&gt;=&lt;ignore&gt; PronType=Art|Definite=Def|Gender=Neut|Number=Plur|Case=Acc Gender=Neut|Number=Plur|Case=Acc &lt;ignore&gt;=&lt;ignore&gt; Tense=Rel|Gender=Neut|Number=Plur|Case=Nom Gender=Masc|Number=Sing|Case=Dat Gender=Masc|Number=Sing|Case=Dat &lt;ignore&gt;=&lt;ignore&gt; Gender=Neut|Number=Sing|Case=Dat &lt;ignore&gt;=&lt;ignore&gt; Number=Plur|Tense=Pres|Mood=Ind</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>der Frosch, der da sitzt unter dem Tisch</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom &lt;ignore&gt;=&lt;ignore&gt; Tense=Rel|Gender=Masc|Number=Sing|Case=Nom &lt;ignore&gt;=&lt;ignore&gt; Number=Sing|Tense=Pres|Mood=Ind &lt;ignore&gt;=&lt;ignore&gt; PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Dat Gender=Masc|Number=Sing|Case=Dat</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>der Tisch</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>der, wo der Frosch drunter sitzt</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>PronType=Dem|Gender=Masc|Number=Sing|Case=Nom &lt;ignore&gt;=&lt;ignore&gt; &lt;ignore&gt;=&lt;ignore&gt; PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom &lt;ignore&gt;=&lt;ignore&gt; Number=Sing|Tense=Pres|Mood=Ind</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>die Ziegen, die die Katze schubsen</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>PronType=Art|Definite=Def|Gender=Fem|Number=Plur|Case=Acc Gender=Fem|Number=Plur|Case=Acc &lt;ignore&gt;=&lt;ignore&gt; Tense=Rel|Gender=Fem|Number=Plur|Case=Nom PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc Number=Plur|Tense=Pres|Mood=Ind</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>die Katze, die vor der Ente steht und die Ente gibt der Katze die Blume</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom Gender=Fem|Number=Sing|Case=Nom &lt;ignore&gt;=&lt;ignore&gt; Tense=Rel|Gender=Fem|Number=Sing|Case=Nom &lt;ignore&gt;=&lt;ignore&gt; PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Dat Gender=Fem|Number=Sing|Case=Dat Number=Sing|Tense=Pres|Mood=Ind &lt;ignore&gt;=&lt;ignore&gt; PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom Gender=Fem|Number=Sing|Case=Nom Number=Sing|Tense=Pres|Mood=Ind PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Dat Gender=Fem|Number=Sing|Case=Dat PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Acc Gender=Fem|Number=Sing|Case=Acc</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>die Katze</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
           <t>PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom Gender=Fem|Number=Sing|Case=Nom</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>der Frosch, der von den Enten gewaschen wird</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom &lt;ignore&gt;=&lt;ignore&gt; Tense=Rel|Gender=Masc|Number=Sing|Case=Nom &lt;ignore&gt;=&lt;ignore&gt; PronType=Art|Definite=Def|Gender=Fem|Number=Plur|Case=Dat Gender=Fem|Number=Plur|Case=Dat &lt;ignore&gt;=&lt;ignore&gt; Number=Sing|Tense=Pres|Mood=Ind</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>das Bett, auf dem die Katze springt</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Acc Gender=Neut|Number=Sing|Case=Acc &lt;ignore&gt;=&lt;ignore&gt; &lt;ignore&gt;=&lt;ignore&gt; Tense=Rel|Gender=Neut|Number=Sing|Case=Dat PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom Gender=Fem|Number=Sing|Case=Nom Number=Sing|Tense=Pres|Mood=Ind</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>der Löwe, der von den Katzen gezogen wird</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom &lt;ignore&gt;=&lt;ignore&gt; Tense=Rel|Gender=Masc|Number=Sing|Case=Nom &lt;ignore&gt;=&lt;ignore&gt; PronType=Art|Definite=Def|Gender=Fem|Number=Plur|Case=Dat Gender=Fem|Number=Plur|Case=Dat &lt;ignore&gt;=&lt;ignore&gt; Number=Sing|Tense=Pres|Mood=Ind</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>das Haus, auf dem das Schaf springt</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Acc Gender=Neut|Number=Sing|Case=Acc &lt;ignore&gt;=&lt;ignore&gt; &lt;ignore&gt;=&lt;ignore&gt; Tense=Rel|Gender=Neut|Number=Sing|Case=Dat PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Nom Gender=Neut|Number=Sing|Case=Nom Number=Sing|Tense=Pres|Mood=Ind</t>
         </is>
       </c>
     </row>

--- a/backend/training/glossing/data/train.xlsx
+++ b/backend/training/glossing/data/train.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,24 +448,24 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>der Keksessende</t>
+          <t>der keksessende</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom</t>
+          <t>Definite=Def|Gender=Masc|Number=Sing|Case=Nom _</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>der Hase mit dem Keks</t>
+          <t>der hase mit dem keks</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom _ PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Dat Gender=Masc|Number=Sing|Case=Dat</t>
+          <t>Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom  Definite=Def|Gender=Masc|Number=Sing|Case=Dat Gender=Masc|Number=Sing|Case=Dat</t>
         </is>
       </c>
     </row>
@@ -477,7 +477,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom _ _</t>
+          <t>Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom  _</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom</t>
+          <t>Definite=Def|Gender=Masc|Number=Sing|Case=Nom _</t>
         </is>
       </c>
     </row>
@@ -501,7 +501,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom</t>
+          <t>Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom</t>
         </is>
       </c>
     </row>
@@ -513,7 +513,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>_ PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom _ Number=Sing</t>
+          <t xml:space="preserve"> Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom  Number=Sing|Tense=Pres</t>
         </is>
       </c>
     </row>
@@ -525,7 +525,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom</t>
+          <t>Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom</t>
         </is>
       </c>
     </row>
@@ -537,19 +537,19 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom PronType=Dem|Gender=Masc|Number=Sing|Case=Nom Number=Sing|Tense=Pres|Mood=Ind</t>
+          <t>Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom Number=Sing|Tense=Pres|Mood=Ind</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>der Ball</t>
+          <t>der ball</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom</t>
+          <t>Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom</t>
         </is>
       </c>
     </row>
@@ -561,79 +561,307 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>_</t>
+          <t>Number=Sing|Tense=Pres|Mood=Ind</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>das Pferd mit dem Zopf</t>
+          <t>der ball der rollt</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Neut|Number=Sing|Case=Acc Gender=Neut|Number=Sing|Case=Nom _ PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Dat Gender=Masc|Number=Sing|Case=Dat</t>
+          <t>Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom Number=Sing|Tense=Pres|Mood=Ind</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>da sitzen</t>
+          <t>das pferd mit dem zopf</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>_ _</t>
+          <t>Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc  Definite=Def|Gender=Masc|Number=Sing|Case=Dat Gender=Masc|Number=Sing|Case=Dat</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Ziege</t>
+          <t>das pferd das die kühe zieht</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Number=Sing|Case=Nom</t>
+          <t>Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc Definite=Def|Number=Plur|Case=Nom/Acc Case=Nom/Acc Number=Sing|Tense=Pres|Mood=Ind</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Baum</t>
+          <t>da sitzen</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Gender=Masc|Number=Sing|Case=Nom</t>
+          <t xml:space="preserve"> Number=Plur|Tense=Pres|Mood=Ind</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>der Tisch</t>
+          <t>ziege</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom</t>
+          <t>Number=Sing</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>die Katze</t>
+          <t>baum</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>PronType=Art|Definite=Def|Gender=Fem|Number=Sing|Case=Nom Gender=Fem|Number=Sing|Case=Nom</t>
+          <t>Number=Sing</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>da wo die ziege sitzt</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc Number=Sing|Tense=Pres|Mood=Ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>die frösche die die ente fangen</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Definite=Def|Number=Plur|Case=Nom/Acc Case=Nom/Acc Number=Plur|Case=Nom/Acc Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc Number=Sing|Tense=Pres|Mood=Ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>die hunde die das schaf gefangen genommen hat</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Definite=Def|Number=Plur|Case=Nom/Acc Case=Nom/Acc Number=Plur|Case=Nom/Acc Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc   Number=Sing|Tense=Pres|Mood=Ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>der hund wo das huhn den ball zum hund wirft</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom  Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc Definite=Def|Gender=Masc|Number=Sing|Case=Acc Gender=Masc|Number=Sing|Case=Acc Case=Dat Number=Sing|Case=Dat Number=Sing|Mood=Ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>der hund der die schafe wäscht</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom Definite=Def|Number=Plur|Case=Nom/Acc Case=Nom/Acc Number=Sing|Tense=Pres|Mood=Ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>das huhn dem der apfel zugeworfen wird</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Dat Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom  Number=Sing|Tense=Pres|Mood=Ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>der löwe der die zwei kühe zieht</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom Definite=Def|Number=Plur|Case=Nom/Acc  Case=Nom/Acc Number=Sing|Tense=Pres|Mood=Ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>das huhn das neben der maus steht und die maus gibt dem huhn die pflaume</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc _ Definite=Def|Gender=Fem|Number=Sing|Case=Dat Gender=Fem|Number=Sing|Case=Dat Number=Sing|Tense=Pres|Mood=Ind  Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc Number=Sing|Mood=Ind Definite=Def|Gender=Neut|Number=Sing|Case=Dat Gender=Neut|Number=Sing|Case=Dat Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>die pferde die das schaf schubst ja die und ich vermute die pferde die vom stier oder schaf geschubst werden</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Definite=Def|Number=Plur|Case=Nom/Acc Case=Nom/Acc Number=Plur|Case=Nom/Acc Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc Number=Sing|Tense=Pres|Mood=Ind  Number=Plur|Case=Nom/Acc  Number=Sing|Case=Nom Number=Sing|Tense=Pres|Mood=Ind Definite=Def|Number=Plur|Case=Nom/Acc Case=Nom/Acc Number=Plur|Case=Nom/Acc Case=Dat Number=Sing|Case=Dat  Number=Sing|Case=Dat  Number=Plur|Tense=Pres|Mood=Ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>der frosch der da sitzt unter dem tisch</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom  Number=Sing|Tense=Pres|Mood=Ind  Definite=Def|Gender=Masc|Number=Sing|Case=Dat Gender=Masc|Number=Sing|Case=Dat</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>der tisch</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>der wo der frosch drunter sitzt</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Gender=Masc|Number=Sing|Case=Nom  Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom  Number=Sing|Tense=Pres|Mood=Ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>die ziegen die die katze schubsen</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Definite=Def|Number=Plur|Case=Nom/Acc Case=Nom/Acc Number=Plur|Case=Nom/Acc Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc Number=Plur|Tense=Pres|Mood=Ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>die katze die vor der ente steht und die ente gibt der katze die blume</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc _ Definite=Def|Gender=Fem|Number=Sing|Case=Dat Gender=Fem|Number=Sing|Case=Dat Number=Sing|Tense=Pres|Mood=Ind  Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc Number=Sing|Mood=Ind Definite=Def|Gender=Fem|Number=Sing|Case=Dat Gender=Fem|Number=Sing|Case=Dat Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>die katze</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc Gender=Fem|Number=Sing|Case=Nom/Acc</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>der frosch der von den enten gewaschen wird</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom  Definite=Def|Number=Plur|Case=Dat Case=Dat  Number=Sing|Tense=Pres|Mood=Ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>das bett auf dem die katze springt</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc  Gender=Neut|Number=Sing|Case=Dat Definite=Def|Gender=Fem|Number=Sing|Case=Nom/Acc  Number=Sing|Tense=Pres|Mood=Ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>der löwe der von den katzen gezogen wird</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Definite=Def|Gender=Masc|Number=Sing|Case=Nom Gender=Masc|Number=Sing|Case=Nom Gender=Masc  Definite=Def|Number=Plur|Case=Dat Case=Dat  Number=Sing|Tense=Pres|Mood=Ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>das haus auf dem das schaf springt</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc  Gender=Neut|Number=Sing|Case=Dat Definite=Def|Gender=Neut|Number=Sing|Case=Nom/Acc Gender=Neut|Number=Sing|Case=Nom/Acc Number=Sing|Tense=Pres|Mood=Ind</t>
         </is>
       </c>
     </row>
